--- a/i_codebooks/D3_followup_periods_in_cohort_ImmDis.xlsx
+++ b/i_codebooks/D3_followup_periods_in_cohort_ImmDis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F62F3A-4135-4B46-BFDF-F4209063A85B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB5E58-2CA6-41BE-BBFE-7737606A24E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Parameters" sheetId="5" r:id="rId3"/>
     <sheet name="Example" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="106">
   <si>
     <t>metadata_content</t>
   </si>
@@ -258,12 +258,6 @@
     <t>date when the period ends</t>
   </si>
   <si>
-    <t>the period ends for one of the reasons stored in cause_end_petiod_</t>
-  </si>
-  <si>
-    <t>the first eriod starts at start_fllow_up; the next periods start … (see SAP)</t>
-  </si>
-  <si>
     <t>study_entry_date</t>
   </si>
   <si>
@@ -346,6 +340,18 @@
   </si>
   <si>
     <t>P03</t>
+  </si>
+  <si>
+    <t>Start at 1. Increment iff previous cause_end_period_{ImmDis} is flare</t>
+  </si>
+  <si>
+    <t>the first period starts at start_follow_up; the next periods start … (see SAP)</t>
+  </si>
+  <si>
+    <t>the period ends for one of the reasons stored in cause_end_period_</t>
+  </si>
+  <si>
+    <t>number_of_period_at_risk_flare_{ImmDis}</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -902,13 +908,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,38 +1028,50 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1333,7 +1351,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="14">
         <v>300</v>
@@ -1368,7 +1386,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="14">
         <v>300</v>
@@ -1403,7 +1421,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="14">
         <v>300</v>
@@ -1438,7 +1456,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -1473,7 +1491,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="15">
         <v>0</v>
@@ -1508,7 +1526,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
@@ -1547,7 +1565,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1576,37 +1594,37 @@
         <v>38</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="I11" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="K11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="L11" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -1616,7 +1634,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="20">
         <v>0</v>
@@ -1659,7 +1677,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="19">
         <v>0</v>
@@ -1702,7 +1720,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15"/>
     </row>
@@ -1711,10 +1729,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -1728,7 +1746,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="20">
         <v>411</v>
@@ -1746,7 +1764,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="19">
         <v>360</v>
@@ -1764,7 +1782,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="19">
         <v>600</v>
@@ -1782,7 +1800,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="19">
         <v>800</v>
@@ -1800,7 +1818,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="19">
         <v>820</v>
@@ -1830,7 +1848,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1838,24 +1856,24 @@
         <v>38</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="20">
         <v>681</v>
@@ -1867,7 +1885,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="19">
         <v>500</v>
@@ -1879,7 +1897,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="19">
         <v>550</v>
@@ -1891,7 +1909,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" s="19">
         <v>850</v>
@@ -1903,7 +1921,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1911,19 +1929,19 @@
         <v>38</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>92</v>
-      </c>
       <c r="F31" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>55</v>
@@ -1931,7 +1949,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="20">
         <v>-10000</v>
@@ -1948,7 +1966,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="19">
         <v>-10000</v>
@@ -1967,7 +1985,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" s="20">
         <v>-10000</v>
